--- a/data/trans_orig/P2A_fisi_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_fisi_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>7682</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3156</v>
+        <v>3764</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13677</v>
+        <v>13725</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01554943224385503</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006387282243728479</v>
+        <v>0.007618030246129968</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02768177999131289</v>
+        <v>0.02778024227681569</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -765,19 +765,19 @@
         <v>15702</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9483</v>
+        <v>9118</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24996</v>
+        <v>25116</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03358803831250943</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02028550214180114</v>
+        <v>0.01950489627688048</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05346927061088039</v>
+        <v>0.05372426410188293</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -786,19 +786,19 @@
         <v>23384</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14973</v>
+        <v>15670</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33378</v>
+        <v>36315</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02431946564756875</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01557156714098037</v>
+        <v>0.01629680919188303</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03471240519078188</v>
+        <v>0.03776706770593048</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>486382</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>480387</v>
+        <v>480339</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>490908</v>
+        <v>490300</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9844505677561449</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9723182200086872</v>
+        <v>0.9722197577231841</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9936127177562712</v>
+        <v>0.9923819697538701</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>473</v>
@@ -836,19 +836,19 @@
         <v>451787</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>442493</v>
+        <v>442373</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>458006</v>
+        <v>458371</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9664119616874906</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9465307293891196</v>
+        <v>0.9462757358981171</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9797144978581991</v>
+        <v>0.9804951037231197</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>964</v>
@@ -857,19 +857,19 @@
         <v>938169</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>928175</v>
+        <v>925238</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>946580</v>
+        <v>945883</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9756805343524313</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9652875948092181</v>
+        <v>0.9622329322940696</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9844284328590196</v>
+        <v>0.983703190808117</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>16629</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10119</v>
+        <v>10121</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26468</v>
+        <v>25675</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02260912526138016</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01375808686778155</v>
+        <v>0.01376156197226081</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03598758654428057</v>
+        <v>0.0349092511566725</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -982,19 +982,19 @@
         <v>15637</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9017</v>
+        <v>8746</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24870</v>
+        <v>24742</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02500019167702539</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01441586321625259</v>
+        <v>0.01398279631529569</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03975978275775136</v>
+        <v>0.03955595222355342</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -1003,19 +1003,19 @@
         <v>32266</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22965</v>
+        <v>22660</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45885</v>
+        <v>44966</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02370803530748456</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01687408856553202</v>
+        <v>0.0166499653641533</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03371438104837865</v>
+        <v>0.03303901917838489</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>718860</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>709021</v>
+        <v>709814</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>725370</v>
+        <v>725368</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9773908747386199</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9640124134557194</v>
+        <v>0.9650907488433275</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9862419131322185</v>
+        <v>0.9862384380277393</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>576</v>
@@ -1053,19 +1053,19 @@
         <v>609857</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>600624</v>
+        <v>600752</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>616477</v>
+        <v>616748</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9749998083229746</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9602402172422487</v>
+        <v>0.9604440477764467</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9855841367837475</v>
+        <v>0.9860172036847042</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1262</v>
@@ -1074,19 +1074,19 @@
         <v>1328716</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1315097</v>
+        <v>1316016</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1338017</v>
+        <v>1338322</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9762919646925154</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9662856189516215</v>
+        <v>0.9669609808216151</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.983125911434468</v>
+        <v>0.9833500346358465</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>26764</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16627</v>
+        <v>17366</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38754</v>
+        <v>38755</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04190525078943404</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02603395287063971</v>
+        <v>0.02719068974658692</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06067934650395779</v>
+        <v>0.0606814438870438</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -1199,19 +1199,19 @@
         <v>32189</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21667</v>
+        <v>22939</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44385</v>
+        <v>45532</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0466687088728074</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03141338707305777</v>
+        <v>0.03325770292383537</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06434942333020305</v>
+        <v>0.06601321525788963</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -1220,19 +1220,19 @@
         <v>58953</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45815</v>
+        <v>44556</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76928</v>
+        <v>75737</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04437855594305809</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0344886219955934</v>
+        <v>0.03354045200058989</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05790957047992411</v>
+        <v>0.05701333351927165</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>611904</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>599914</v>
+        <v>599913</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>622041</v>
+        <v>621302</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9580947492105659</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9393206534960422</v>
+        <v>0.9393185561129562</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9739660471293603</v>
+        <v>0.9728093102534131</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>629</v>
@@ -1270,19 +1270,19 @@
         <v>657555</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>645359</v>
+        <v>644212</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>668077</v>
+        <v>666805</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9533312911271926</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.935650576669797</v>
+        <v>0.9339867847421105</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9685866129269423</v>
+        <v>0.9667422970761647</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1219</v>
@@ -1291,19 +1291,19 @@
         <v>1269459</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1251484</v>
+        <v>1252675</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1282597</v>
+        <v>1283856</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9556214440569419</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9420904295200758</v>
+        <v>0.9429866664807283</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9655113780044066</v>
+        <v>0.9664595479994101</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>27733</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18786</v>
+        <v>18794</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39418</v>
+        <v>41004</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05342113941723382</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03618593234251308</v>
+        <v>0.03620250914463854</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07592839495270129</v>
+        <v>0.07898422411803425</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -1416,19 +1416,19 @@
         <v>43296</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31789</v>
+        <v>32008</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58285</v>
+        <v>58230</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08396457539639159</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0616497354017143</v>
+        <v>0.06207369517887787</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1130336430101532</v>
+        <v>0.112927680923429</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>67</v>
@@ -1437,19 +1437,19 @@
         <v>71029</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>57210</v>
+        <v>56338</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>90416</v>
+        <v>87241</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06864112881694827</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05528636275606761</v>
+        <v>0.05444389779587747</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0873763936659569</v>
+        <v>0.08430819953419126</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>491414</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>479729</v>
+        <v>478143</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>500361</v>
+        <v>500353</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9465788605827662</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9240716050472987</v>
+        <v>0.9210157758819659</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9638140676574869</v>
+        <v>0.9637974908553615</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>461</v>
@@ -1487,19 +1487,19 @@
         <v>472346</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>457357</v>
+        <v>457412</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>483853</v>
+        <v>483634</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9160354246036084</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8869663569898468</v>
+        <v>0.8870723190765712</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9383502645982857</v>
+        <v>0.9379263048211223</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>919</v>
@@ -1508,19 +1508,19 @@
         <v>963760</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>944373</v>
+        <v>947548</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>977579</v>
+        <v>978451</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9313588711830517</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9126236063340432</v>
+        <v>0.9156918004658088</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9447136372439323</v>
+        <v>0.9455561022041226</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>35166</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24912</v>
+        <v>24581</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47849</v>
+        <v>47228</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09093735462270196</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0644212412381405</v>
+        <v>0.06356328382622545</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.123733522795386</v>
+        <v>0.1221289548241293</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -1633,19 +1633,19 @@
         <v>32181</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21666</v>
+        <v>22094</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>44550</v>
+        <v>45951</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07965873063260118</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05362996769896416</v>
+        <v>0.0546892469800411</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1102749018538139</v>
+        <v>0.1137442606459229</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>64</v>
@@ -1654,19 +1654,19 @@
         <v>67347</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>52077</v>
+        <v>52665</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>83987</v>
+        <v>85253</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08517482911022675</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06586284573533407</v>
+        <v>0.06660524853507872</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1062188034531534</v>
+        <v>0.1078199879979579</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>351544</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>338861</v>
+        <v>339482</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>361798</v>
+        <v>362129</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9090626453772981</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8762664772046135</v>
+        <v>0.8778710451758707</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9355787587618593</v>
+        <v>0.9364367161737746</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>367</v>
@@ -1704,19 +1704,19 @@
         <v>371805</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>359436</v>
+        <v>358035</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>382320</v>
+        <v>381892</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9203412693673988</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8897250981461861</v>
+        <v>0.8862557393540772</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9463700323010359</v>
+        <v>0.9453107530199589</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>724</v>
@@ -1725,19 +1725,19 @@
         <v>723349</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>706709</v>
+        <v>705443</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>738619</v>
+        <v>738031</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9148251708897732</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8937811965468466</v>
+        <v>0.8921800120020419</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9341371542646659</v>
+        <v>0.9333947514649211</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>25061</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16323</v>
+        <v>17178</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35686</v>
+        <v>36120</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08565428017521802</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05579069395639966</v>
+        <v>0.05871166202005578</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1219687798921456</v>
+        <v>0.1234524286903778</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -1850,19 +1850,19 @@
         <v>30562</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22420</v>
+        <v>22173</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42422</v>
+        <v>42277</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08912062812375704</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06537566896225031</v>
+        <v>0.0646563736821823</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1237031150085895</v>
+        <v>0.1232806095241328</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>59</v>
@@ -1871,19 +1871,19 @@
         <v>55623</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41817</v>
+        <v>42622</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>69146</v>
+        <v>70529</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08752477076068614</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0657997984188016</v>
+        <v>0.06706636004815622</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1088031360875132</v>
+        <v>0.1109781862285904</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>267522</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>256897</v>
+        <v>256463</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>276260</v>
+        <v>275405</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.914345719824782</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8780312201078544</v>
+        <v>0.8765475713096222</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9442093060436001</v>
+        <v>0.9412883379799442</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>338</v>
@@ -1921,19 +1921,19 @@
         <v>312372</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>300512</v>
+        <v>300657</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>320514</v>
+        <v>320761</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.910879371876243</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8762968849914107</v>
+        <v>0.8767193904758674</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9346243310377498</v>
+        <v>0.9353436263178178</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>615</v>
@@ -1942,19 +1942,19 @@
         <v>579894</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>566371</v>
+        <v>564988</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>593700</v>
+        <v>592895</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9124752292393139</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8911968639124869</v>
+        <v>0.8890218137714095</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9342002015811984</v>
+        <v>0.9329336399518436</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>24575</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17269</v>
+        <v>16485</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34445</v>
+        <v>33917</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1170900408080413</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08227857472254618</v>
+        <v>0.07854173646181123</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1641137743544403</v>
+        <v>0.1615997663411731</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -2067,19 +2067,19 @@
         <v>41961</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31721</v>
+        <v>30226</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>58100</v>
+        <v>56510</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1256670399570665</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09499856445941306</v>
+        <v>0.09052284078891359</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1740011238942298</v>
+        <v>0.169237040250367</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>64</v>
@@ -2088,19 +2088,19 @@
         <v>66536</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>49604</v>
+        <v>53018</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>82474</v>
+        <v>82405</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1223566387669672</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09121891086818992</v>
+        <v>0.09749734314890572</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1516640060839309</v>
+        <v>0.1515371711722473</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>185308</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>175438</v>
+        <v>175966</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>192614</v>
+        <v>193398</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8829099591919587</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8358862256455597</v>
+        <v>0.8384002336588271</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9177214252774538</v>
+        <v>0.9214582635381888</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>253</v>
@@ -2138,19 +2138,19 @@
         <v>291947</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>275808</v>
+        <v>277398</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>302187</v>
+        <v>303682</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8743329600429335</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8259988761057703</v>
+        <v>0.8307629597496334</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9050014355405871</v>
+        <v>0.9094771592110864</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>446</v>
@@ -2159,19 +2159,19 @@
         <v>477255</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>461317</v>
+        <v>461386</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>494187</v>
+        <v>490773</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8776433612330328</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8483359939160691</v>
+        <v>0.8484628288277527</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9087810891318101</v>
+        <v>0.9025026568510942</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>163611</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>140406</v>
+        <v>140158</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>188371</v>
+        <v>191449</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04993393741010657</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04285200873922652</v>
+        <v>0.04277616800071952</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05749074562967509</v>
+        <v>0.05843018412780338</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>200</v>
@@ -2284,19 +2284,19 @@
         <v>211529</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>184643</v>
+        <v>184997</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>240916</v>
+        <v>241382</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06259752466297842</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05464096204607682</v>
+        <v>0.05474596447383961</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07129388954889423</v>
+        <v>0.07143190253277287</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>362</v>
@@ -2305,19 +2305,19 @@
         <v>375140</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>339175</v>
+        <v>342030</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>414130</v>
+        <v>414314</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05636338866745972</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05095976112769389</v>
+        <v>0.05138876134609212</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06222152767841781</v>
+        <v>0.06224914621784765</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3112932</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3088172</v>
+        <v>3085094</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3136137</v>
+        <v>3136385</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9500660625898935</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.942509254370325</v>
+        <v>0.9415698158721966</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9571479912607735</v>
+        <v>0.9572238319992804</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3097</v>
@@ -2355,19 +2355,19 @@
         <v>3167668</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3138281</v>
+        <v>3137815</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3194554</v>
+        <v>3194200</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9374024753370216</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9287061104511061</v>
+        <v>0.9285680974672272</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9453590379539233</v>
+        <v>0.9452540355261605</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6149</v>
@@ -2376,19 +2376,19 @@
         <v>6280601</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6241611</v>
+        <v>6241427</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6316566</v>
+        <v>6313711</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9436366113325403</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9377784723215822</v>
+        <v>0.9377508537821524</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.949040238872306</v>
+        <v>0.9486112386539078</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>11485</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6236</v>
+        <v>6167</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20163</v>
+        <v>20339</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02528935263489138</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01373218879749256</v>
+        <v>0.01357925020630173</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04439713840429198</v>
+        <v>0.04478612741639522</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -2744,19 +2744,19 @@
         <v>17935</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11660</v>
+        <v>10717</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27126</v>
+        <v>27833</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04168589144729726</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02710283863139376</v>
+        <v>0.0249095032336862</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06305050132360618</v>
+        <v>0.0646926273010245</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -2765,19 +2765,19 @@
         <v>29420</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20953</v>
+        <v>20550</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41616</v>
+        <v>41369</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03326591467305843</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02369245752590542</v>
+        <v>0.02323721975146559</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04705727672223814</v>
+        <v>0.04677803160795715</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>442661</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>433983</v>
+        <v>433807</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>447910</v>
+        <v>447979</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9747106473651086</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.955602861595708</v>
+        <v>0.9552138725836044</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9862678112025075</v>
+        <v>0.986420749793697</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>403</v>
@@ -2815,19 +2815,19 @@
         <v>412295</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>403104</v>
+        <v>402397</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>418570</v>
+        <v>419513</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9583141085527027</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9369494986763938</v>
+        <v>0.9353073726989755</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.972897161368606</v>
+        <v>0.9750904967663138</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>838</v>
@@ -2836,19 +2836,19 @@
         <v>854956</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>842760</v>
+        <v>843007</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>863423</v>
+        <v>863826</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9667340853269416</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9529427232777619</v>
+        <v>0.9532219683920432</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9763075424740946</v>
+        <v>0.9767627802485346</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>34100</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24440</v>
+        <v>23654</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47460</v>
+        <v>48234</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04962923525976011</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03556989477891448</v>
+        <v>0.03442652838069675</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06907356689987064</v>
+        <v>0.07020126497361193</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -2961,19 +2961,19 @@
         <v>24435</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16352</v>
+        <v>15338</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37796</v>
+        <v>35865</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04004095046591952</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02679591664166753</v>
+        <v>0.02513296885987676</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06193434122275678</v>
+        <v>0.05877116613895469</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -2982,19 +2982,19 @@
         <v>58535</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43802</v>
+        <v>45006</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77324</v>
+        <v>76081</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04511901310352284</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0337629488107559</v>
+        <v>0.03469074296090763</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05960153725039089</v>
+        <v>0.05864383667766813</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>652987</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>639627</v>
+        <v>638853</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>662647</v>
+        <v>663433</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9503707647402398</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9309264331001291</v>
+        <v>0.929798735026388</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9644301052210855</v>
+        <v>0.9655734716193033</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>549</v>
@@ -3032,19 +3032,19 @@
         <v>585820</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>572459</v>
+        <v>574390</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>593903</v>
+        <v>594917</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9599590495340805</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9380656587772432</v>
+        <v>0.9412288338610455</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9732040833583325</v>
+        <v>0.9748670311401235</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1183</v>
@@ -3053,19 +3053,19 @@
         <v>1238807</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1220018</v>
+        <v>1221261</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1253540</v>
+        <v>1252336</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9548809868964772</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.940398462749609</v>
+        <v>0.9413561633223317</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9662370511892441</v>
+        <v>0.9653092570390923</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>36609</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26089</v>
+        <v>26422</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52026</v>
+        <v>50053</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05368981345015812</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03826087465057636</v>
+        <v>0.03874990290365317</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07630049137657062</v>
+        <v>0.07340614918205879</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -3178,19 +3178,19 @@
         <v>52499</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40803</v>
+        <v>39309</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69128</v>
+        <v>68062</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07385313438171112</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05739979268819535</v>
+        <v>0.05529923267618809</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09724741707678806</v>
+        <v>0.09574685137995334</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>83</v>
@@ -3199,19 +3199,19 @@
         <v>89108</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>70595</v>
+        <v>70693</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>109401</v>
+        <v>109742</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06398130695502183</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05068882899212108</v>
+        <v>0.05075930760135828</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07855261183921243</v>
+        <v>0.0787974473682231</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>645254</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>629837</v>
+        <v>631810</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>655774</v>
+        <v>655441</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9463101865498419</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9236995086234292</v>
+        <v>0.9265938508179412</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9617391253494236</v>
+        <v>0.9612500970963468</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>618</v>
@@ -3249,19 +3249,19 @@
         <v>658351</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>641722</v>
+        <v>642788</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>670047</v>
+        <v>671541</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9261468656182889</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9027525829232117</v>
+        <v>0.9042531486200467</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9426002073118045</v>
+        <v>0.9447007673238119</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1235</v>
@@ -3270,19 +3270,19 @@
         <v>1303604</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1283311</v>
+        <v>1282970</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1322117</v>
+        <v>1322019</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9360186930449782</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9214473881607878</v>
+        <v>0.921202552631777</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9493111710078789</v>
+        <v>0.9492406923986417</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>40021</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28712</v>
+        <v>29376</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52609</v>
+        <v>53992</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06511480707902666</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04671494532646061</v>
+        <v>0.04779642632564448</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08559622652617926</v>
+        <v>0.0878458276316412</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -3395,19 +3395,19 @@
         <v>60475</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45312</v>
+        <v>46722</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>78228</v>
+        <v>77382</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09814119024506948</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07353514031674056</v>
+        <v>0.07582369551118968</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1269522520991408</v>
+        <v>0.1255802869896404</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>89</v>
@@ -3416,19 +3416,19 @@
         <v>100495</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>82223</v>
+        <v>80428</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>122298</v>
+        <v>122805</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08164922914977883</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06680344314476423</v>
+        <v>0.06534491442155275</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09936372617232735</v>
+        <v>0.09977504865861711</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>574596</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>562008</v>
+        <v>560625</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>585905</v>
+        <v>585241</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9348851929209734</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9144037734738207</v>
+        <v>0.9121541723683586</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9532850546735399</v>
+        <v>0.9522035736743555</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>487</v>
@@ -3466,19 +3466,19 @@
         <v>555724</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>537971</v>
+        <v>538817</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>570887</v>
+        <v>569477</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9018588097549305</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8730477479008592</v>
+        <v>0.8744197130103596</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9264648596832594</v>
+        <v>0.9241763044888104</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>998</v>
@@ -3487,19 +3487,19 @@
         <v>1130321</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1108518</v>
+        <v>1108011</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1148593</v>
+        <v>1150388</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9183507708502212</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9006362738276729</v>
+        <v>0.9002249513413829</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9331965568552358</v>
+        <v>0.9346550855784472</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>46962</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36112</v>
+        <v>36384</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>61707</v>
+        <v>61005</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1093583414094886</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0840931155536452</v>
+        <v>0.08472618618507749</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1436944238980736</v>
+        <v>0.1420618562078392</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -3612,19 +3612,19 @@
         <v>51641</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38087</v>
+        <v>39114</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66418</v>
+        <v>67571</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.115322555908134</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08505453546474585</v>
+        <v>0.08734759596089971</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1483212919903106</v>
+        <v>0.1508947076400707</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>92</v>
@@ -3633,19 +3633,19 @@
         <v>98603</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>82304</v>
+        <v>80256</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>120687</v>
+        <v>118821</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1124028996326101</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09382219603124572</v>
+        <v>0.09148825840245572</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1375771405513577</v>
+        <v>0.1354508828154533</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>382467</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>367722</v>
+        <v>368424</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>393317</v>
+        <v>393045</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8906416585905115</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8563055761019263</v>
+        <v>0.8579381437921608</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9159068844463547</v>
+        <v>0.9152738138149223</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>359</v>
@@ -3683,19 +3683,19 @@
         <v>396159</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>381382</v>
+        <v>380229</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>409713</v>
+        <v>408686</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.884677444091866</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8516787080096894</v>
+        <v>0.849105292359929</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9149454645352537</v>
+        <v>0.9126524040391002</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>707</v>
@@ -3704,19 +3704,19 @@
         <v>778626</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>756542</v>
+        <v>758408</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>794925</v>
+        <v>796973</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8875971003673899</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8624228594486425</v>
+        <v>0.8645491171845467</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9061778039687545</v>
+        <v>0.9085117415975444</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>42284</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29441</v>
+        <v>30896</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>56826</v>
+        <v>57666</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1364947804563307</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09503628966467384</v>
+        <v>0.09973247697388615</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1834365923861064</v>
+        <v>0.1861491675760122</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>39</v>
@@ -3829,19 +3829,19 @@
         <v>40534</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29333</v>
+        <v>29737</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>53911</v>
+        <v>55865</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1145044183879975</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08286318933728454</v>
+        <v>0.08400433682240779</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1522923409295573</v>
+        <v>0.1578136353848845</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>75</v>
@@ -3850,19 +3850,19 @@
         <v>82818</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>66203</v>
+        <v>67791</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>101214</v>
+        <v>102494</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1247672884894247</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09973542805190252</v>
+        <v>0.102128883179416</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1524802533612578</v>
+        <v>0.1544095906601845</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>267502</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>252960</v>
+        <v>252120</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>280345</v>
+        <v>278890</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8635052195436693</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8165634076138936</v>
+        <v>0.8138508324239878</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9049637103353262</v>
+        <v>0.9002675230261139</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>305</v>
@@ -3900,19 +3900,19 @@
         <v>313462</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>300085</v>
+        <v>298131</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>324663</v>
+        <v>324259</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8854955816120026</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8477076590704427</v>
+        <v>0.842186364615115</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9171368106627155</v>
+        <v>0.9159956631775922</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>551</v>
@@ -3921,19 +3921,19 @@
         <v>580964</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>562568</v>
+        <v>561288</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>597579</v>
+        <v>595991</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8752327115105752</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8475197466387422</v>
+        <v>0.8455904093398154</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9002645719480974</v>
+        <v>0.897871116820584</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>39044</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27784</v>
+        <v>27434</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53598</v>
+        <v>53681</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1562693900770469</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1112030378842422</v>
+        <v>0.1098001905377232</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2145217619055952</v>
+        <v>0.2148504935686225</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -4046,19 +4046,19 @@
         <v>75835</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>59807</v>
+        <v>60727</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>94032</v>
+        <v>93627</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1949590369270396</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1537529359102256</v>
+        <v>0.1561199476347506</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2417393431349074</v>
+        <v>0.240698085765444</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>100</v>
@@ -4067,19 +4067,19 @@
         <v>114879</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>95129</v>
+        <v>96310</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>141075</v>
+        <v>137891</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1798272435887368</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.148910560534999</v>
+        <v>0.150759245569336</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2208333467128829</v>
+        <v>0.2158489700782151</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>210807</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>196253</v>
+        <v>196170</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>222067</v>
+        <v>222417</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8437306099229531</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7854782380944048</v>
+        <v>0.7851495064313775</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8887969621157578</v>
+        <v>0.8901998094622767</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>281</v>
@@ -4117,19 +4117,19 @@
         <v>313144</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>294947</v>
+        <v>295352</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>329172</v>
+        <v>328252</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8050409630729605</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7582606568650933</v>
+        <v>0.759301914234556</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8462470640897743</v>
+        <v>0.8438800523652495</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>472</v>
@@ -4138,19 +4138,19 @@
         <v>523951</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>497755</v>
+        <v>500939</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>543701</v>
+        <v>542520</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8201727564112632</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7791666532871171</v>
+        <v>0.7841510299217849</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8510894394650009</v>
+        <v>0.8492407544306642</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>250504</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>220325</v>
+        <v>220649</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>284204</v>
+        <v>284190</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07310197190093792</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0642951189885948</v>
+        <v>0.06438953553770181</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08293609902617817</v>
+        <v>0.082932106996797</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>296</v>
@@ -4263,19 +4263,19 @@
         <v>323353</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>291747</v>
+        <v>288909</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>361240</v>
+        <v>358775</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09087272033551926</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08199023821857671</v>
+        <v>0.08119282508642628</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1015201075544141</v>
+        <v>0.100827331118257</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>523</v>
@@ -4284,19 +4284,19 @@
         <v>573858</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>530201</v>
+        <v>526329</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>624350</v>
+        <v>625205</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08215465901507424</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07590467218028921</v>
+        <v>0.07535034231610496</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08938330677493805</v>
+        <v>0.08950562897190951</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3176275</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3142575</v>
+        <v>3142589</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3206454</v>
+        <v>3206130</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9268980280990621</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9170639009738218</v>
+        <v>0.9170678930032021</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.935704881011406</v>
+        <v>0.9356104644622978</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3002</v>
@@ -4334,19 +4334,19 @@
         <v>3234956</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3197069</v>
+        <v>3199534</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3266562</v>
+        <v>3269400</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9091272796644807</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.898479892445586</v>
+        <v>0.899172668881743</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9180097617814232</v>
+        <v>0.9188071749135738</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5984</v>
@@ -4355,19 +4355,19 @@
         <v>6411230</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6360738</v>
+        <v>6359883</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6454887</v>
+        <v>6458759</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9178453409849258</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9106166932250611</v>
+        <v>0.9104943710280905</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9240953278197106</v>
+        <v>0.9246496576838953</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>12847</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6208</v>
+        <v>6853</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21362</v>
+        <v>22004</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03062616144188336</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01479882289562006</v>
+        <v>0.01633752020580139</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05092658511093006</v>
+        <v>0.0524564742897277</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -4723,19 +4723,19 @@
         <v>8514</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3747</v>
+        <v>3801</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15822</v>
+        <v>15234</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02151449702268749</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009467901252428077</v>
+        <v>0.009605661238469508</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03997940111323164</v>
+        <v>0.0384936680092364</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -4744,19 +4744,19 @@
         <v>21361</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13609</v>
+        <v>13518</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32092</v>
+        <v>31915</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02620282097013993</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01669403720041321</v>
+        <v>0.01658233400263818</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03936601955853249</v>
+        <v>0.0391492051767484</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>406616</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>398101</v>
+        <v>397459</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>413255</v>
+        <v>412610</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9693738385581167</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9490734148890699</v>
+        <v>0.9475435257102723</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.98520117710438</v>
+        <v>0.9836624797941987</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>395</v>
@@ -4794,19 +4794,19 @@
         <v>387241</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>379933</v>
+        <v>380521</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>392008</v>
+        <v>391954</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9784855029773125</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9600205988867683</v>
+        <v>0.9615063319907634</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.990532098747572</v>
+        <v>0.9903943387615305</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>776</v>
@@ -4815,19 +4815,19 @@
         <v>793857</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>783126</v>
+        <v>783303</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>801609</v>
+        <v>801700</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9737971790298601</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9606339804414674</v>
+        <v>0.9608507948232515</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9833059627995868</v>
+        <v>0.9834176659973618</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>18058</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10896</v>
+        <v>10763</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28094</v>
+        <v>27473</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03058105081861111</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01845201763339084</v>
+        <v>0.01822718429200947</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04757667684931732</v>
+        <v>0.04652454421811456</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -4940,19 +4940,19 @@
         <v>12895</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7497</v>
+        <v>7454</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20902</v>
+        <v>21254</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02288270432896862</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01330391417653672</v>
+        <v>0.0132270006765809</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03709002657074533</v>
+        <v>0.03771464283124766</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -4961,19 +4961,19 @@
         <v>30953</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22118</v>
+        <v>22085</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44930</v>
+        <v>43551</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02682177493280332</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01916568756423526</v>
+        <v>0.019137444684987</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03893316970187594</v>
+        <v>0.0377382098457784</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>572438</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>562402</v>
+        <v>563023</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>579600</v>
+        <v>579733</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9694189491813889</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9524233231506838</v>
+        <v>0.9534754557818854</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9815479823666093</v>
+        <v>0.9817728157079906</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>566</v>
@@ -5011,19 +5011,19 @@
         <v>550649</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>542642</v>
+        <v>542290</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>556047</v>
+        <v>556090</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9771172956710313</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9629099734292553</v>
+        <v>0.9622853571687531</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9866960858234634</v>
+        <v>0.9867729993234191</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1115</v>
@@ -5032,19 +5032,19 @@
         <v>1123087</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1109110</v>
+        <v>1110489</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1131922</v>
+        <v>1131955</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9731782250671966</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.961066830298124</v>
+        <v>0.9622617901542214</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9808343124357648</v>
+        <v>0.980862555315013</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>24053</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15964</v>
+        <v>15208</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35289</v>
+        <v>35674</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0359480137965795</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02385854720912239</v>
+        <v>0.02272968614455564</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05274135248954372</v>
+        <v>0.05331715306252848</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -5157,19 +5157,19 @@
         <v>25543</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17802</v>
+        <v>17501</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36455</v>
+        <v>35822</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03862068777882229</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02691659484584808</v>
+        <v>0.02646169615578898</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05511929538395318</v>
+        <v>0.05416275895826662</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -5178,19 +5178,19 @@
         <v>49596</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37568</v>
+        <v>36819</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>64245</v>
+        <v>63798</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03727660645143222</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02823626015007405</v>
+        <v>0.02767351531865256</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04828677812937217</v>
+        <v>0.0479508483521541</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>645044</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>633808</v>
+        <v>633423</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>653133</v>
+        <v>653889</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9640519862034205</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9472586475104564</v>
+        <v>0.946682846937472</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9761414527908776</v>
+        <v>0.9772703138554448</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>638</v>
@@ -5228,19 +5228,19 @@
         <v>635843</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>624931</v>
+        <v>625564</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>643584</v>
+        <v>643885</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9613793122211777</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9448807046160469</v>
+        <v>0.9458372410417336</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9730834051541519</v>
+        <v>0.9735383038442114</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1253</v>
@@ -5249,19 +5249,19 @@
         <v>1280887</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1266238</v>
+        <v>1266685</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1292915</v>
+        <v>1293664</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9627233935485677</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9517132218706279</v>
+        <v>0.9520491516478459</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.971763739849926</v>
+        <v>0.9723264846813474</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>46732</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34476</v>
+        <v>34900</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>63161</v>
+        <v>63593</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07233471538858333</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05336490784213439</v>
+        <v>0.05402050272428433</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09776522692606364</v>
+        <v>0.09843353247526791</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -5374,19 +5374,19 @@
         <v>44532</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32383</v>
+        <v>32714</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58219</v>
+        <v>59482</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06860838563307108</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04989057635564626</v>
+        <v>0.05040114937080857</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08969531980054792</v>
+        <v>0.09164040766184162</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>83</v>
@@ -5395,19 +5395,19 @@
         <v>91264</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>73023</v>
+        <v>72644</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>111191</v>
+        <v>111167</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07046719351346634</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05638335244376955</v>
+        <v>0.05609072434953984</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08585352029945104</v>
+        <v>0.08583504003054263</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>599316</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>582887</v>
+        <v>582455</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>611572</v>
+        <v>611148</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9276652846114166</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9022347730739364</v>
+        <v>0.9015664675247327</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9466350921578657</v>
+        <v>0.9459794972757158</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>560</v>
@@ -5445,19 +5445,19 @@
         <v>604545</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>590858</v>
+        <v>589595</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>616694</v>
+        <v>616363</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.931391614366929</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9103046801994519</v>
+        <v>0.9083595923381583</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9501094236443534</v>
+        <v>0.9495988506291914</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1101</v>
@@ -5466,19 +5466,19 @@
         <v>1203861</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1183934</v>
+        <v>1183958</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1222102</v>
+        <v>1222481</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9295328064865337</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.914146479700549</v>
+        <v>0.9141649599694572</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9436166475562303</v>
+        <v>0.9439092756504601</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>42039</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29935</v>
+        <v>29480</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55981</v>
+        <v>56167</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08796291396528463</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06263708528226669</v>
+        <v>0.06168346478214429</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1171352441396037</v>
+        <v>0.1175249719656607</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -5591,19 +5591,19 @@
         <v>64677</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49825</v>
+        <v>51242</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>83392</v>
+        <v>83907</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1301738141444335</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1002810301189591</v>
+        <v>0.1031349165520673</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1678414252194915</v>
+        <v>0.1688774083226632</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>92</v>
@@ -5612,19 +5612,19 @@
         <v>106716</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>86387</v>
+        <v>87637</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>130114</v>
+        <v>129427</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1094782541488281</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08862309261134647</v>
+        <v>0.08990550281554115</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1334818026407959</v>
+        <v>0.1327778306934285</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>435879</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>421937</v>
+        <v>421751</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>447983</v>
+        <v>448438</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9120370860347153</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8828647558603956</v>
+        <v>0.8824750280343394</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9373629147177333</v>
+        <v>0.9383165352178557</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>378</v>
@@ -5662,19 +5662,19 @@
         <v>432172</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>413457</v>
+        <v>412942</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>447024</v>
+        <v>445607</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8698261858555666</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8321585747805083</v>
+        <v>0.8311225916773367</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8997189698810408</v>
+        <v>0.8968650834479327</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>765</v>
@@ -5683,19 +5683,19 @@
         <v>868051</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>844653</v>
+        <v>845340</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>888380</v>
+        <v>887130</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8905217458511719</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8665181973592041</v>
+        <v>0.8672221693065714</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9113769073886538</v>
+        <v>0.9100944971844588</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>25752</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17446</v>
+        <v>17591</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36771</v>
+        <v>36302</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07702568327723851</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05218151012327982</v>
+        <v>0.05261705268846682</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1099827735261255</v>
+        <v>0.1085815462772613</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -5808,19 +5808,19 @@
         <v>31982</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22783</v>
+        <v>21561</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>46049</v>
+        <v>42712</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08466075518946131</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06031049154708711</v>
+        <v>0.05707676211773224</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1218996954234956</v>
+        <v>0.1130660689412321</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>56</v>
@@ -5829,19 +5829,19 @@
         <v>57734</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>44110</v>
+        <v>44829</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>75037</v>
+        <v>76420</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08107605885918312</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06194405116727898</v>
+        <v>0.06295436018334277</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1053752575866302</v>
+        <v>0.1073174845750672</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>308578</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>297559</v>
+        <v>298028</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>316884</v>
+        <v>316739</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9229743167227615</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8900172264738745</v>
+        <v>0.8914184537227385</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9478184898767202</v>
+        <v>0.9473829473115329</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>324</v>
@@ -5879,19 +5879,19 @@
         <v>345780</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>331713</v>
+        <v>335050</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>354979</v>
+        <v>356201</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9153392448105386</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8781003045765046</v>
+        <v>0.8869339310587667</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.939689508452913</v>
+        <v>0.9429232378822668</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>623</v>
@@ -5900,19 +5900,19 @@
         <v>654358</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>637055</v>
+        <v>635672</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>667982</v>
+        <v>667263</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9189239411408169</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8946247424133698</v>
+        <v>0.8926825154249326</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.938055948832721</v>
+        <v>0.9370456398166572</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>19014</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12296</v>
+        <v>12201</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28701</v>
+        <v>27911</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07398566285906302</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04784407206531719</v>
+        <v>0.04747496538615591</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1116787753201077</v>
+        <v>0.1086058260833783</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>41</v>
@@ -6025,19 +6025,19 @@
         <v>56570</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40744</v>
+        <v>42352</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>71658</v>
+        <v>74676</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1413654347638803</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1018160409640819</v>
+        <v>0.1058353533905198</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1790698529480539</v>
+        <v>0.1866110854532405</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>63</v>
@@ -6046,19 +6046,19 @@
         <v>75584</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>59835</v>
+        <v>59805</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>95175</v>
+        <v>95242</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1150152579006268</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09104918762350683</v>
+        <v>0.09100362747515223</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1448256237576288</v>
+        <v>0.1449286719346673</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>237984</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>228297</v>
+        <v>229087</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>244702</v>
+        <v>244797</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9260143371409369</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8883212246798921</v>
+        <v>0.8913941739166217</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9521559279346827</v>
+        <v>0.952525034613844</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>260</v>
@@ -6096,19 +6096,19 @@
         <v>343599</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>328511</v>
+        <v>325493</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>359425</v>
+        <v>357817</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8586345652361197</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8209301470519468</v>
+        <v>0.8133889145467598</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8981839590359187</v>
+        <v>0.8941646466094803</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>540</v>
@@ -6117,19 +6117,19 @@
         <v>581583</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>561992</v>
+        <v>561925</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>597332</v>
+        <v>597362</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8849847420993732</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8551743762423712</v>
+        <v>0.8550713280653331</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9089508123764936</v>
+        <v>0.9089963725248478</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>188494</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>164224</v>
+        <v>161842</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>220076</v>
+        <v>216225</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05553174074114699</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04838153796789946</v>
+        <v>0.04767982581940018</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06483610987414637</v>
+        <v>0.0637013106270657</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>217</v>
@@ -6242,19 +6242,19 @@
         <v>244714</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>213645</v>
+        <v>213089</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>280084</v>
+        <v>278518</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06903955462421327</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06027443957268275</v>
+        <v>0.06011752654520586</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07901834150987914</v>
+        <v>0.07857669178624521</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>396</v>
@@ -6263,19 +6263,19 @@
         <v>433208</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>390956</v>
+        <v>387373</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>473027</v>
+        <v>474364</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06243183534737137</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05634277062347628</v>
+        <v>0.05582634633503576</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06817032633125863</v>
+        <v>0.06836301283125795</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3205856</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3174274</v>
+        <v>3178125</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3230126</v>
+        <v>3232508</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.944468259258853</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9351638901258542</v>
+        <v>0.9362986893729343</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9516184620321007</v>
+        <v>0.9523201741805998</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3121</v>
@@ -6313,19 +6313,19 @@
         <v>3299828</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3264458</v>
+        <v>3266024</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3330897</v>
+        <v>3331453</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9309604453757867</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9209816584901216</v>
+        <v>0.9214233082137552</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9397255604273174</v>
+        <v>0.9398824734547941</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6173</v>
@@ -6334,19 +6334,19 @@
         <v>6505684</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6465865</v>
+        <v>6464528</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6547936</v>
+        <v>6551519</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9375681646526286</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9318296736687415</v>
+        <v>0.9316369871687421</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9436572293765236</v>
+        <v>0.9441736536649643</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>18273</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8809</v>
+        <v>7975</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35017</v>
+        <v>33005</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.04480934721412972</v>
+        <v>0.04480934721412973</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02160200093660182</v>
+        <v>0.0195564233144461</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0858698698382733</v>
+        <v>0.08093637504576362</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -6702,19 +6702,19 @@
         <v>24846</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15172</v>
+        <v>14890</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41845</v>
+        <v>41257</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0685377172226839</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0418522862113869</v>
+        <v>0.04107430488766239</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1154306918745243</v>
+        <v>0.1138090690259697</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -6723,19 +6723,19 @@
         <v>43119</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28217</v>
+        <v>27792</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64706</v>
+        <v>61546</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05597611603217488</v>
+        <v>0.05597611603217487</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03663034895962462</v>
+        <v>0.03607978430808077</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08400069007687852</v>
+        <v>0.0798977353602521</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>389520</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>372776</v>
+        <v>374788</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>398984</v>
+        <v>399818</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9551906527858703</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9141301301617267</v>
+        <v>0.9190636249542364</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9783979990633982</v>
+        <v>0.9804435766855539</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>192</v>
@@ -6773,19 +6773,19 @@
         <v>337666</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>320667</v>
+        <v>321255</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>347340</v>
+        <v>347622</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9314622827773162</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8845693081254757</v>
+        <v>0.8861909309740307</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9581477137886133</v>
+        <v>0.9589256951123376</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>355</v>
@@ -6794,19 +6794,19 @@
         <v>727186</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>705599</v>
+        <v>708759</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>742088</v>
+        <v>742513</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9440238839678253</v>
+        <v>0.9440238839678251</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9159993099231214</v>
+        <v>0.9201022646397481</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9633696510403754</v>
+        <v>0.9639202156919192</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>40532</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26040</v>
+        <v>25958</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59860</v>
+        <v>61679</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08499255414770993</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0546042440987204</v>
+        <v>0.05443128915874203</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1255213045943418</v>
+        <v>0.1293367598436258</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -6919,19 +6919,19 @@
         <v>19951</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12213</v>
+        <v>12459</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29736</v>
+        <v>31436</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.03976489728004179</v>
+        <v>0.03976489728004178</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0243413830167097</v>
+        <v>0.02483172693901716</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05926626224293327</v>
+        <v>0.0626547793841439</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -6940,19 +6940,19 @@
         <v>60483</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44268</v>
+        <v>44148</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84391</v>
+        <v>83052</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.06180467364749833</v>
+        <v>0.06180467364749834</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04523487241862229</v>
+        <v>0.04511229396249581</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08623396835717945</v>
+        <v>0.08486659075246732</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>436358</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>417030</v>
+        <v>415211</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>450850</v>
+        <v>450932</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9150074458522901</v>
+        <v>0.91500744585229</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8744786954056583</v>
+        <v>0.870663240156373</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9453957559012796</v>
+        <v>0.9455687108412578</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>442</v>
@@ -6990,19 +6990,19 @@
         <v>481782</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>471997</v>
+        <v>470297</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>489520</v>
+        <v>489274</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9602351027199582</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9407337377570668</v>
+        <v>0.9373452206158562</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.97565861698329</v>
+        <v>0.9751682730609829</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>721</v>
@@ -7011,19 +7011,19 @@
         <v>918140</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>894232</v>
+        <v>895571</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>934355</v>
+        <v>934475</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9381953263525015</v>
+        <v>0.9381953263525017</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9137660316428206</v>
+        <v>0.9151334092475322</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9547651275813777</v>
+        <v>0.9548877060375042</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>21782</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13668</v>
+        <v>13699</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34417</v>
+        <v>33398</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03508472199665202</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02201595008215546</v>
+        <v>0.02206556533671617</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05543585853888162</v>
+        <v>0.05379575113008941</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -7136,19 +7136,19 @@
         <v>36861</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27406</v>
+        <v>27442</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48035</v>
+        <v>47334</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05914836250743695</v>
+        <v>0.05914836250743696</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04397637227558517</v>
+        <v>0.04403466171967889</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07707873576486104</v>
+        <v>0.07595399226349211</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -7157,19 +7157,19 @@
         <v>58643</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46581</v>
+        <v>45376</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76284</v>
+        <v>73215</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04713932678390195</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0374433019675223</v>
+        <v>0.03647504900392479</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06132021851235431</v>
+        <v>0.05885336725830333</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>599055</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>586420</v>
+        <v>587439</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>607169</v>
+        <v>607138</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.964915278003348</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9445641414611183</v>
+        <v>0.9462042488699103</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9779840499178444</v>
+        <v>0.9779344346632832</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>799</v>
@@ -7207,19 +7207,19 @@
         <v>586332</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>575158</v>
+        <v>575859</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>595787</v>
+        <v>595751</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9408516374925631</v>
+        <v>0.9408516374925633</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.922921264235139</v>
+        <v>0.9240460077365078</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9560236277244147</v>
+        <v>0.955965338280321</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1325</v>
@@ -7228,19 +7228,19 @@
         <v>1185386</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1167745</v>
+        <v>1170814</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1197448</v>
+        <v>1198653</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.952860673216098</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9386797814876457</v>
+        <v>0.9411466327416965</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9625566980324778</v>
+        <v>0.963524950996075</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>71065</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56915</v>
+        <v>55341</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90333</v>
+        <v>88733</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.101431464959191</v>
+        <v>0.1014314649591909</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08123489291623903</v>
+        <v>0.07898858753690145</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1289334719366889</v>
+        <v>0.1266504289371255</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>108</v>
@@ -7353,19 +7353,19 @@
         <v>68903</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57989</v>
+        <v>57387</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84056</v>
+        <v>82165</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09350598318055926</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07869478345194922</v>
+        <v>0.0778778332965144</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1140693702647297</v>
+        <v>0.1115034988240059</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>175</v>
@@ -7374,19 +7374,19 @@
         <v>139968</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>121148</v>
+        <v>119892</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>161860</v>
+        <v>159988</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09736874135626526</v>
+        <v>0.09736874135626528</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08427655431911765</v>
+        <v>0.08340296354380644</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1125976403297353</v>
+        <v>0.1112956051431811</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>629552</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>610284</v>
+        <v>611884</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>643702</v>
+        <v>645276</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.898568535040809</v>
+        <v>0.8985685350408089</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8710665280633113</v>
+        <v>0.8733495710628745</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.918765107083761</v>
+        <v>0.9210114124630988</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1033</v>
@@ -7424,19 +7424,19 @@
         <v>667983</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>652830</v>
+        <v>654721</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>678897</v>
+        <v>679499</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9064940168194409</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8859306297352704</v>
+        <v>0.8884965011759941</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9213052165480508</v>
+        <v>0.9221221667034857</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1631</v>
@@ -7445,19 +7445,19 @@
         <v>1297536</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1275644</v>
+        <v>1277516</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1316356</v>
+        <v>1317612</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9026312586437348</v>
+        <v>0.9026312586437349</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8874023596702649</v>
+        <v>0.8887043948568192</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9157234456808824</v>
+        <v>0.9165970364561937</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>95379</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79738</v>
+        <v>80183</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>113558</v>
+        <v>114903</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1565275707568486</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1308580819684253</v>
+        <v>0.1315881271114172</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1863611497166973</v>
+        <v>0.1885672251763051</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>105</v>
@@ -7570,19 +7570,19 @@
         <v>67241</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>56377</v>
+        <v>56534</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>80316</v>
+        <v>80091</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1104387809738578</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09259477171068124</v>
+        <v>0.09285335818720906</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1319136969280023</v>
+        <v>0.1315434995945702</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>208</v>
@@ -7591,19 +7591,19 @@
         <v>162621</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>143003</v>
+        <v>140593</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>185180</v>
+        <v>184854</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1334924648019782</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.117388389851355</v>
+        <v>0.1154101661232679</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1520105899891811</v>
+        <v>0.1517429464512026</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>513967</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>495788</v>
+        <v>494443</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>529608</v>
+        <v>529163</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8434724292431515</v>
+        <v>0.8434724292431514</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8136388502833027</v>
+        <v>0.811432774823695</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8691419180315743</v>
+        <v>0.8684118728885827</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>897</v>
@@ -7641,19 +7641,19 @@
         <v>541614</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>528539</v>
+        <v>528764</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>552478</v>
+        <v>552321</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8895612190261419</v>
+        <v>0.8895612190261422</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8680863030719983</v>
+        <v>0.8684565004054301</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9074052282893188</v>
+        <v>0.9071466418127916</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1457</v>
@@ -7662,19 +7662,19 @@
         <v>1055581</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1033022</v>
+        <v>1033348</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1075199</v>
+        <v>1077609</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8665075351980218</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.847989410010819</v>
+        <v>0.8482570535487974</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8826116101486451</v>
+        <v>0.8845898338767322</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>54612</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>43323</v>
+        <v>44572</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>66859</v>
+        <v>67288</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1341557904926418</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1064238154822511</v>
+        <v>0.1094918486172195</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1642407306024901</v>
+        <v>0.1652953872792522</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>118</v>
@@ -7787,19 +7787,19 @@
         <v>64205</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>53833</v>
+        <v>53602</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>75021</v>
+        <v>75909</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1461969798185755</v>
+        <v>0.1461969798185754</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1225803098071382</v>
+        <v>0.1220534205143498</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1708267197818108</v>
+        <v>0.1728483975915952</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>194</v>
@@ -7808,19 +7808,19 @@
         <v>118817</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>102780</v>
+        <v>102207</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>133663</v>
+        <v>135247</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1404046634324926</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1214541370055489</v>
+        <v>0.1207768780311011</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1579481251919577</v>
+        <v>0.1598201957548949</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>352468</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>340221</v>
+        <v>339792</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>363757</v>
+        <v>362508</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8658442095073581</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8357592693975099</v>
+        <v>0.8347046127207478</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8935761845177489</v>
+        <v>0.8905081513827806</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>709</v>
@@ -7858,19 +7858,19 @@
         <v>374961</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>364145</v>
+        <v>363257</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>385333</v>
+        <v>385564</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8538030201814246</v>
+        <v>0.8538030201814245</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8291732802181891</v>
+        <v>0.8271516024084048</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8774196901928618</v>
+        <v>0.8779465794856502</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1203</v>
@@ -7879,19 +7879,19 @@
         <v>727429</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>712583</v>
+        <v>710999</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>743466</v>
+        <v>744039</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8595953365675072</v>
+        <v>0.8595953365675074</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8420518748080421</v>
+        <v>0.8401798042451051</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8785458629944509</v>
+        <v>0.8792231219688994</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>82032</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>69695</v>
+        <v>69437</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>94412</v>
+        <v>95843</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2644511598382761</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2246794247146725</v>
+        <v>0.223846199030497</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3043607951115119</v>
+        <v>0.3089748467842922</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>270</v>
@@ -8004,19 +8004,19 @@
         <v>145408</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>130968</v>
+        <v>130611</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>162086</v>
+        <v>160746</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3129694577867806</v>
+        <v>0.3129694577867805</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2818886725568402</v>
+        <v>0.2811209877898674</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3488643958873349</v>
+        <v>0.345980415366246</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>394</v>
@@ -8025,19 +8025,19 @@
         <v>227441</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>208049</v>
+        <v>205810</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>247287</v>
+        <v>245377</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2935448913057423</v>
+        <v>0.2935448913057422</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2685173596404932</v>
+        <v>0.2656268795954921</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3191595473947256</v>
+        <v>0.3166938171412115</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>228166</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>215786</v>
+        <v>214355</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>240503</v>
+        <v>240761</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7355488401617238</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.695639204888488</v>
+        <v>0.6910251532157079</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7753205752853275</v>
+        <v>0.776153800969503</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>611</v>
@@ -8075,19 +8075,19 @@
         <v>319201</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>302523</v>
+        <v>303863</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>333641</v>
+        <v>333998</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6870305422132195</v>
+        <v>0.6870305422132194</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6511356041126654</v>
+        <v>0.6540195846337541</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.71811132744316</v>
+        <v>0.7188790122101324</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>945</v>
@@ -8096,19 +8096,19 @@
         <v>547366</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>527520</v>
+        <v>529430</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>566758</v>
+        <v>568997</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7064551086942578</v>
+        <v>0.7064551086942576</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6808404526052744</v>
+        <v>0.6833061828587887</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7314826403595069</v>
+        <v>0.7343731204045079</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>383676</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>343254</v>
+        <v>348699</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>420015</v>
+        <v>422697</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1086049704302342</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09716305788333555</v>
+        <v>0.09870439189899308</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1188913068127</v>
+        <v>0.1196506665590197</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>684</v>
@@ -8221,19 +8221,19 @@
         <v>427416</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>397090</v>
+        <v>397140</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>461814</v>
+        <v>462816</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1143753991354247</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1062603195657008</v>
+        <v>0.1062736264969031</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1235802588909297</v>
+        <v>0.1238485385859447</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1106</v>
@@ -8242,19 +8242,19 @@
         <v>811091</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>764752</v>
+        <v>759499</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>861253</v>
+        <v>859682</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1115712248711752</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1051969513523481</v>
+        <v>0.1044743221783358</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1184713604200549</v>
+        <v>0.1182552928918669</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3149086</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3112747</v>
+        <v>3110065</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3189508</v>
+        <v>3184063</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8913950295697659</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8811086931873002</v>
+        <v>0.8803493334409803</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9028369421166647</v>
+        <v>0.901295608101007</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4683</v>
@@ -8292,19 +8292,19 @@
         <v>3309538</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3275140</v>
+        <v>3274138</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3339864</v>
+        <v>3339814</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8856246008645754</v>
+        <v>0.8856246008645753</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8764197411090699</v>
+        <v>0.8761514614140556</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8937396804342991</v>
+        <v>0.8937263735030971</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7637</v>
@@ -8313,19 +8313,19 @@
         <v>6458625</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6408463</v>
+        <v>6410034</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6504964</v>
+        <v>6510217</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8884287751288248</v>
+        <v>0.8884287751288247</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8815286395799452</v>
+        <v>0.8817447071081329</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8948030486476519</v>
+        <v>0.8955256778216643</v>
       </c>
     </row>
     <row r="27">
